--- a/P2_Performer/Results/03-27-2023/Rich Drexel - London, England, United Kingdom.xlsx
+++ b/P2_Performer/Results/03-27-2023/Rich Drexel - London, England, United Kingdom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\GetawayGurus\P2_Performer\Results\03-27-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0278E54C-8A05-4894-8C5A-CEC7E98B1FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED2378F9-1F7E-4502-9439-09160F725C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2004" yWindow="2364" windowWidth="17280" windowHeight="8964" xr2:uid="{A1FAF4A7-F0BB-4497-A1BA-7F4F59656CDF}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t># of Nights</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Max Temp</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>Restaurant</t>
+  </si>
+  <si>
+    <t>Total Per Room</t>
   </si>
   <si>
     <t>Cineworld</t>
@@ -698,7 +698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -742,12 +742,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -757,6 +751,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -776,8 +773,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1100,12 +1099,12 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
     <col min="2" max="4" width="11.77734375" customWidth="1"/>
     <col min="5" max="5" width="31.44140625" customWidth="1"/>
   </cols>
@@ -1120,10 +1119,10 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="39"/>
+      <c r="D1" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
@@ -1135,65 +1134,63 @@
       <c r="C2" s="11">
         <v>8</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="37">
         <f>PRODUCT(B2,C2)</f>
         <v>2536</v>
       </c>
-      <c r="E2" s="41"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="48">
-        <v>301</v>
-      </c>
+      <c r="B3" s="8"/>
       <c r="C3" s="8">
         <v>8</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="37">
         <f t="shared" ref="D3:D4" si="0">PRODUCT(B3,C3)</f>
-        <v>2408</v>
-      </c>
-      <c r="E3" s="41"/>
+        <v>8</v>
+      </c>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="48">
         <v>465</v>
       </c>
       <c r="C4" s="13">
         <v>8</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="37">
         <f t="shared" si="0"/>
         <v>3720</v>
       </c>
-      <c r="E4" s="41"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="43"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="40"/>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -1232,34 +1229,34 @@
       <c r="A10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="35"/>
+      <c r="B11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
     </row>
     <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
     </row>
     <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
@@ -1305,23 +1302,23 @@
     </row>
     <row r="17" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>8</v>
-      </c>
       <c r="C17" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="E17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="18" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="50">
+      <c r="A18" s="49">
         <v>45237</v>
       </c>
       <c r="B18" s="19">
@@ -1338,7 +1335,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="51">
+      <c r="A19" s="50">
         <v>45238</v>
       </c>
       <c r="B19" s="8">
@@ -1355,7 +1352,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="51">
+      <c r="A20" s="50">
         <v>45239</v>
       </c>
       <c r="B20" s="8">
@@ -1372,7 +1369,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="51">
+      <c r="A21" s="50">
         <v>45240</v>
       </c>
       <c r="B21" s="8">
@@ -1389,7 +1386,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="51">
+      <c r="A22" s="50">
         <v>45241</v>
       </c>
       <c r="B22" s="8">
@@ -1406,7 +1403,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="52">
+      <c r="A23" s="51">
         <v>45242</v>
       </c>
       <c r="B23" s="5">
@@ -1423,7 +1420,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="53">
+      <c r="A24" s="52">
         <v>45243</v>
       </c>
       <c r="B24" s="21">
@@ -1440,7 +1437,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="51">
+      <c r="A25" s="50">
         <v>45244</v>
       </c>
       <c r="B25" s="8">
@@ -1500,6 +1497,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
@@ -1511,11 +1513,6 @@
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
